--- a/biology/Neurosciences/Henry_Head/Henry_Head.xlsx
+++ b/biology/Neurosciences/Henry_Head/Henry_Head.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Head, né le 4 août 1861 à Stoke Newington et mort le 8 octobre 1940 à Reading, est un neurologue anglais, dont les travaux furent pionniers dans le domaine de la somesthésie et du système nerveux sensoriel. Il a mené la plupart de ses expériences en ce domaine sur lui-même allant jusqu'à sectionner l'un de ses propres nerfs sensitifs pour en étudier les perceptions transmises lors de la repousse nerveuse, avec la collaboration de William Rivers.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henry Head naît en Angleterre en août 1861, d'un père courtier en assurance. Il commence à étudier à Charterhouse et Trinity College à Cambridge. Il choisit la médecine, influencé par un cousin maternel, Marcus Beck, qui fut l'assistant de Joseph Lister[1].
-Par la suite, il collabore avec Hering sur la physiologie respiratoire, à Prague, apprenant en parallèle le français et l'allemand. Il retourne ensuite à Londres, obtenant son diplôme en 1890. Puis il est employé à l'hôpital neurologique de Queen Square sous la supervision de Thomas Buzzard et au Victoria Park Hospital for Chest Diseases, où il développe un intérêt pour la douleur et la physiologie[1].
-Sa thèse de médecine, On disturbances of sensation with especial reference to the pain of visceral disease, est publiée en 1893 dans la revue Brain[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henry Head naît en Angleterre en août 1861, d'un père courtier en assurance. Il commence à étudier à Charterhouse et Trinity College à Cambridge. Il choisit la médecine, influencé par un cousin maternel, Marcus Beck, qui fut l'assistant de Joseph Lister.
+Par la suite, il collabore avec Hering sur la physiologie respiratoire, à Prague, apprenant en parallèle le français et l'allemand. Il retourne ensuite à Londres, obtenant son diplôme en 1890. Puis il est employé à l'hôpital neurologique de Queen Square sous la supervision de Thomas Buzzard et au Victoria Park Hospital for Chest Diseases, où il développe un intérêt pour la douleur et la physiologie.
+Sa thèse de médecine, On disturbances of sensation with especial reference to the pain of visceral disease, est publiée en 1893 dans la revue Brain.
 </t>
         </is>
       </c>
